--- a/other/阵型.xlsx
+++ b/other/阵型.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="0" windowWidth="27630" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="9360" yWindow="0" windowWidth="27630" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="方形" sheetId="1" r:id="rId1"/>
@@ -112,11 +112,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hp</t>
+    <t>soldernum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>soldernum</t>
+    <t>cardhp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,13 +356,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -647,22 +647,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="G7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AK36" sqref="AK36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="39" width="2.625" customWidth="1"/>
     <col min="42" max="73" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -770,7 +770,7 @@
       </c>
       <c r="AN3" s="1"/>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -812,7 +812,7 @@
       <c r="AM4" s="4"/>
       <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -856,7 +856,7 @@
       <c r="AM5" s="4"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -900,7 +900,7 @@
       <c r="AM6" s="4"/>
       <c r="AN6" s="1"/>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -944,7 +944,7 @@
       <c r="AM7" s="4"/>
       <c r="AN7" s="1"/>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -988,7 +988,7 @@
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1032,7 +1032,7 @@
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
       <c r="E10" s="4">
         <v>4</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
       <c r="E11" s="4">
         <v>3</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
       <c r="E12" s="4">
         <v>2</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
       <c r="E13" s="4">
         <v>1</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
       <c r="E14" s="4">
         <v>0</v>
       </c>
@@ -1113,7 +1113,9 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="3">
+        <v>33</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="2">
@@ -1129,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
       <c r="E15" s="4">
         <v>-1</v>
       </c>
@@ -1140,7 +1142,9 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="M15" s="3">
+        <v>34</v>
+      </c>
       <c r="P15" s="2">
         <v>24</v>
       </c>
@@ -1154,7 +1158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
       <c r="E16" s="4">
         <v>-2</v>
       </c>
@@ -1166,6 +1170,9 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
+      <c r="O16" s="2">
+        <v>35</v>
+      </c>
       <c r="R16" s="2">
         <v>23</v>
       </c>
@@ -1179,7 +1186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
       <c r="E17" s="4">
         <v>-3</v>
       </c>
@@ -1191,6 +1198,9 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
+      <c r="Q17" s="2">
+        <v>36</v>
+      </c>
       <c r="T17" s="2">
         <v>22</v>
       </c>
@@ -1204,7 +1214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.15">
       <c r="E18" s="4">
         <v>-4</v>
       </c>
@@ -1216,6 +1226,9 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
+      <c r="S18" s="2">
+        <v>37</v>
+      </c>
       <c r="V18" s="2">
         <v>21</v>
       </c>
@@ -1225,9 +1238,11 @@
       <c r="AB18" s="2">
         <v>17</v>
       </c>
-      <c r="AE18" s="7"/>
-    </row>
-    <row r="19" spans="1:39">
+      <c r="AE18" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
       <c r="E19" s="4">
         <v>-5</v>
       </c>
@@ -1239,15 +1254,21 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
+      <c r="U19" s="2">
+        <v>38</v>
+      </c>
       <c r="X19" s="2">
         <v>20</v>
       </c>
       <c r="AA19" s="2">
         <v>18</v>
       </c>
+      <c r="AD19" s="2">
+        <v>43</v>
+      </c>
       <c r="AG19" s="8"/>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
       <c r="E20" s="4">
         <v>-6</v>
       </c>
@@ -1259,29 +1280,41 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
+      <c r="W20" s="2">
+        <v>39</v>
+      </c>
       <c r="Z20" s="2">
         <v>19</v>
       </c>
+      <c r="AC20" s="2">
+        <v>42</v>
+      </c>
       <c r="AI20" s="8"/>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
       <c r="E21" s="4">
         <v>-7</v>
       </c>
+      <c r="Y21" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>41</v>
+      </c>
       <c r="AK21" s="7"/>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
       <c r="E22" s="4">
         <v>-8</v>
       </c>
       <c r="AM22" s="8"/>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
       <c r="E23" s="4">
         <v>-9</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
       <c r="K25" s="4">
         <v>-10</v>
       </c>
@@ -1356,12 +1389,12 @@
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
       <c r="F27" s="1">
         <v>8</v>
       </c>
@@ -1369,8 +1402,11 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:39">
+      <c r="Q27" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
       <c r="F28" s="1">
         <v>7</v>
       </c>
@@ -1381,8 +1417,11 @@
       <c r="P28" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:39">
+      <c r="S28" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
       <c r="F29" s="1">
         <v>6</v>
       </c>
@@ -1396,8 +1435,11 @@
       <c r="R29" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:39">
+      <c r="U29" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
       <c r="F30" s="1">
         <v>5</v>
       </c>
@@ -1414,8 +1456,11 @@
       <c r="T30" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:39">
+      <c r="W30" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
       <c r="F31" s="1">
         <v>4</v>
       </c>
@@ -1435,8 +1480,11 @@
       <c r="V31" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:39">
+      <c r="Y31" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.15">
       <c r="F32" s="1">
         <v>3</v>
       </c>
@@ -1456,8 +1504,11 @@
       <c r="X32" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="6:30">
+      <c r="AA32" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="6:32" x14ac:dyDescent="0.15">
       <c r="F33" s="1">
         <v>2</v>
       </c>
@@ -1477,8 +1528,11 @@
       <c r="Z33" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="6:30">
+      <c r="AC33" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="6:32" x14ac:dyDescent="0.15">
       <c r="F34" s="1">
         <v>1</v>
       </c>
@@ -1498,8 +1552,11 @@
       <c r="AB34" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="6:30">
+      <c r="AE34" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="6:32" x14ac:dyDescent="0.15">
       <c r="F35" s="1">
         <v>0</v>
       </c>
@@ -1520,7 +1577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="6:30">
+    <row r="36" spans="6:32" x14ac:dyDescent="0.15">
       <c r="F36" s="1">
         <v>-1</v>
       </c>
@@ -1537,8 +1594,11 @@
       <c r="AC36" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="6:30">
+      <c r="AF36" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="6:32" x14ac:dyDescent="0.15">
       <c r="F37" s="1">
         <v>-2</v>
       </c>
@@ -1552,8 +1612,11 @@
       <c r="AB37" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="6:30">
+      <c r="AE37" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="6:32" x14ac:dyDescent="0.15">
       <c r="F38" s="1">
         <v>-3</v>
       </c>
@@ -1564,8 +1627,11 @@
       <c r="AA38" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="6:30">
+      <c r="AD38" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="6:32" x14ac:dyDescent="0.15">
       <c r="F39" s="1">
         <v>-4</v>
       </c>
@@ -1573,6 +1639,9 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
+      <c r="AC39" s="2">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1585,17 +1654,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AI45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AI21"/>
+    <sheetView topLeftCell="C13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="27" width="2.625" customWidth="1"/>
     <col min="29" max="35" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:27">
+    <row r="4" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -1666,27 +1735,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:27">
+    <row r="6" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D6" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:27">
+    <row r="7" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D7" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:27">
+    <row r="8" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D8" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:27">
+    <row r="9" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D9" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:27">
+    <row r="10" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D10" s="4">
         <v>3</v>
       </c>
@@ -1696,7 +1765,7 @@
       <c r="H10" s="4"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="3:27">
+    <row r="11" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D11" s="4">
         <v>2</v>
       </c>
@@ -1707,7 +1776,7 @@
       <c r="N11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="3:27">
+    <row r="12" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D12" s="4">
         <v>1</v>
       </c>
@@ -1719,7 +1788,7 @@
       <c r="P12" s="5"/>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="3:27">
+    <row r="13" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D13" s="4">
         <v>0</v>
       </c>
@@ -1743,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:27">
+    <row r="14" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D14" s="4">
         <v>-1</v>
       </c>
@@ -1767,7 +1836,7 @@
       </c>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="3:27">
+    <row r="15" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D15" s="4">
         <v>-2</v>
       </c>
@@ -1794,7 +1863,7 @@
       </c>
       <c r="Y15" s="5"/>
     </row>
-    <row r="16" spans="3:27">
+    <row r="16" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D16" s="4">
         <v>-3</v>
       </c>
@@ -1822,14 +1891,27 @@
       <c r="X16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="3:26">
+    <row r="17" spans="3:26" x14ac:dyDescent="0.15">
       <c r="D17" s="4">
         <v>-4</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="3">
+        <v>33</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="3">
+        <v>34</v>
+      </c>
+      <c r="K17" s="2">
+        <v>35</v>
+      </c>
+      <c r="N17" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>37</v>
+      </c>
       <c r="T17" s="2">
         <v>12</v>
       </c>
@@ -1838,7 +1920,7 @@
       </c>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="3:26">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.15">
       <c r="D18" s="4">
         <v>-5</v>
       </c>
@@ -1854,7 +1936,7 @@
       </c>
       <c r="Y18" s="5"/>
     </row>
-    <row r="19" spans="3:26">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.15">
       <c r="D19" s="4">
         <v>-6</v>
       </c>
@@ -1862,6 +1944,9 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
+      <c r="R19" s="2">
+        <v>38</v>
+      </c>
       <c r="U19" s="2">
         <v>13</v>
       </c>
@@ -1869,7 +1954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="3:26">
+    <row r="20" spans="3:26" x14ac:dyDescent="0.15">
       <c r="D20" s="4">
         <v>-7</v>
       </c>
@@ -1884,7 +1969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="3:26">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.15">
       <c r="D21" s="4">
         <v>-8</v>
       </c>
@@ -1892,11 +1977,17 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
+      <c r="S21" s="2">
+        <v>39</v>
+      </c>
       <c r="V21" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="3:26">
+      <c r="Y21" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.15">
       <c r="D22" s="4">
         <v>-9</v>
       </c>
@@ -1907,13 +1998,29 @@
       <c r="U22" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:26">
+      <c r="X22" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="T23" s="2">
+        <v>40</v>
+      </c>
+      <c r="W23" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="V24" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="3:26">
+    <row r="26" spans="3:26" x14ac:dyDescent="0.15">
       <c r="E26" s="4">
         <v>-6</v>
       </c>
@@ -1972,12 +2079,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="3:26">
+    <row r="29" spans="3:26" x14ac:dyDescent="0.15">
       <c r="D29" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="3:26">
+      <c r="K29" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.15">
       <c r="D30" s="1">
         <v>11</v>
       </c>
@@ -1985,15 +2095,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="3:26">
+    <row r="31" spans="3:26" x14ac:dyDescent="0.15">
       <c r="D31" s="1">
         <v>10</v>
       </c>
       <c r="I31" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="3:26">
+      <c r="L31" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.15">
       <c r="D32" s="1">
         <v>9</v>
       </c>
@@ -2004,7 +2117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="4:23">
+    <row r="33" spans="4:26" x14ac:dyDescent="0.15">
       <c r="D33" s="1">
         <v>8</v>
       </c>
@@ -2014,8 +2127,11 @@
       <c r="J33" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="4:23">
+      <c r="M33" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="4:26" x14ac:dyDescent="0.15">
       <c r="D34" s="1">
         <v>7</v>
       </c>
@@ -2027,7 +2143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="4:23">
+    <row r="35" spans="4:26" x14ac:dyDescent="0.15">
       <c r="D35" s="1">
         <v>6</v>
       </c>
@@ -2038,8 +2154,11 @@
       <c r="K35" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="4:23">
+      <c r="N35" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="4:26" x14ac:dyDescent="0.15">
       <c r="D36" s="1">
         <v>5</v>
       </c>
@@ -2051,7 +2170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="4:23">
+    <row r="37" spans="4:26" x14ac:dyDescent="0.15">
       <c r="D37" s="1">
         <v>4</v>
       </c>
@@ -2062,8 +2181,20 @@
       <c r="L37" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="4:23">
+      <c r="O37" s="2">
+        <v>37</v>
+      </c>
+      <c r="R37" s="2">
+        <v>38</v>
+      </c>
+      <c r="U37" s="2">
+        <v>39</v>
+      </c>
+      <c r="X37" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="4:26" x14ac:dyDescent="0.15">
       <c r="D38" s="1">
         <v>3</v>
       </c>
@@ -2084,8 +2215,11 @@
       <c r="W38" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="4:23">
+      <c r="Z38" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="4:26" x14ac:dyDescent="0.15">
       <c r="D39" s="1">
         <v>2</v>
       </c>
@@ -2106,8 +2240,11 @@
         <v>18</v>
       </c>
       <c r="W39" s="5"/>
-    </row>
-    <row r="40" spans="4:23">
+      <c r="Y39" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="4:26" x14ac:dyDescent="0.15">
       <c r="D40" s="1">
         <v>1</v>
       </c>
@@ -2124,8 +2261,11 @@
       <c r="U40" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="4:23">
+      <c r="X40" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="4:26" x14ac:dyDescent="0.15">
       <c r="D41" s="1">
         <v>0</v>
       </c>
@@ -2141,8 +2281,11 @@
       <c r="T41" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="4:23">
+      <c r="W41" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="4:26" x14ac:dyDescent="0.15">
       <c r="D42" s="1">
         <v>-1</v>
       </c>
@@ -2150,20 +2293,20 @@
       <c r="P42" s="5"/>
       <c r="S42" s="5"/>
     </row>
-    <row r="43" spans="4:23">
+    <row r="43" spans="4:26" x14ac:dyDescent="0.15">
       <c r="D43" s="1">
         <v>-2</v>
       </c>
       <c r="O43" s="5"/>
       <c r="R43" s="5"/>
     </row>
-    <row r="44" spans="4:23">
+    <row r="44" spans="4:26" x14ac:dyDescent="0.15">
       <c r="D44" s="1">
         <v>-3</v>
       </c>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="4:23">
+    <row r="45" spans="4:26" x14ac:dyDescent="0.15">
       <c r="D45" s="1">
         <v>-4</v>
       </c>
@@ -2178,18 +2321,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:12" ht="14.25" thickBot="1"/>
-    <row r="10" spans="2:12">
+    <row r="9" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
@@ -2198,22 +2341,22 @@
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B11" s="12"/>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="29" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="29" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="30"/>
-    </row>
-    <row r="12" spans="2:12">
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B12" s="12"/>
       <c r="C12" s="15" t="s">
         <v>9</v>
@@ -2234,7 +2377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B13" s="12">
         <v>1</v>
       </c>
@@ -2257,7 +2400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B14" s="12">
         <v>2</v>
       </c>
@@ -2280,7 +2423,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B15" s="12">
         <v>3</v>
       </c>
@@ -2302,14 +2445,14 @@
       <c r="H15" s="23">
         <v>157</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
         <v>4</v>
       </c>
@@ -2331,14 +2474,14 @@
       <c r="H16" s="23">
         <v>217</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>5</v>
       </c>
@@ -2360,14 +2503,14 @@
       <c r="H17" s="23">
         <v>277</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>6</v>
       </c>
@@ -2389,14 +2532,14 @@
       <c r="H18" s="23">
         <v>337</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>7</v>
       </c>
@@ -2418,14 +2561,14 @@
       <c r="H19" s="16">
         <v>397</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="31" t="s">
+      <c r="L19" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="14.25" thickBot="1">
+    <row r="20" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="12">
         <v>8</v>
       </c>
@@ -2447,14 +2590,14 @@
       <c r="H20" s="20">
         <v>457</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="31" t="s">
+      <c r="L20" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -2463,7 +2606,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -2472,7 +2615,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" s="21">
         <v>1</v>
       </c>
@@ -2491,7 +2634,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" s="21">
         <v>2</v>
       </c>
@@ -2510,7 +2653,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="21">
         <v>3</v>
       </c>
@@ -2529,7 +2672,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="21">
         <v>4</v>
       </c>
@@ -2548,7 +2691,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="21">
         <v>5</v>
       </c>
@@ -2567,7 +2710,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" s="21">
         <v>6</v>
       </c>
@@ -2586,7 +2729,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="21">
         <v>7</v>
       </c>
@@ -2605,7 +2748,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" s="21">
         <v>8</v>
       </c>

--- a/other/阵型.xlsx
+++ b/other/阵型.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="0" windowWidth="27630" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="10530" yWindow="0" windowWidth="27630" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="方形" sheetId="1" r:id="rId1"/>
@@ -647,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="E10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="AK36" sqref="AK36"/>
     </sheetView>
   </sheetViews>
@@ -1654,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AI45"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26:AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1891,7 +1891,7 @@
       <c r="X16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D17" s="4">
         <v>-4</v>
       </c>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D18" s="4">
         <v>-5</v>
       </c>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="Y18" s="5"/>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D19" s="4">
         <v>-6</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D20" s="4">
         <v>-7</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D21" s="4">
         <v>-8</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D22" s="4">
         <v>-9</v>
       </c>
@@ -2002,7 +2002,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.15">
+      <c r="D23" s="4">
+        <v>-10</v>
+      </c>
       <c r="T23" s="2">
         <v>40</v>
       </c>
@@ -2010,17 +2013,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.15">
+      <c r="D24" s="4">
+        <v>-11</v>
+      </c>
       <c r="V24" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:27" x14ac:dyDescent="0.15">
       <c r="E26" s="4">
         <v>-6</v>
       </c>
@@ -2078,8 +2084,20 @@
       <c r="W26" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="X26" s="4">
+        <v>13</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>14</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>15</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D29" s="1">
         <v>12</v>
       </c>
@@ -2087,7 +2105,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D30" s="1">
         <v>11</v>
       </c>
@@ -2095,7 +2113,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D31" s="1">
         <v>10</v>
       </c>
@@ -2106,7 +2124,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D32" s="1">
         <v>9</v>
       </c>
@@ -2321,7 +2339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>

--- a/other/阵型.xlsx
+++ b/other/阵型.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10530" yWindow="0" windowWidth="27630" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="11700" yWindow="0" windowWidth="27630" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="方形" sheetId="1" r:id="rId1"/>
     <sheet name="楔形" sheetId="2" r:id="rId2"/>
-    <sheet name="数据" sheetId="3" r:id="rId3"/>
+    <sheet name="点位数据" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>我方方形</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,18 +49,6 @@
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -117,6 +105,50 @@
   </si>
   <si>
     <t>cardhp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半左HL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半右HR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,6 +396,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1654,7 +1722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AI45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="U26" sqref="U26:AA26"/>
     </sheetView>
   </sheetViews>
@@ -2337,21 +2405,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B9:L30"/>
+  <dimension ref="B9:AA35"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="9" style="35"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="6"/>
+    <row r="9" spans="2:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B10" s="36"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="13"/>
@@ -2359,28 +2428,28 @@
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="12"/>
-      <c r="C11" s="30" t="s">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B11" s="37"/>
+      <c r="C11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B12" s="37"/>
+      <c r="C12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="30" t="s">
+      <c r="D12" s="16" t="s">
         <v>7</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="12"/>
-      <c r="C12" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>10</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>4</v>
@@ -2389,15 +2458,15 @@
         <v>5</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="12">
-        <v>1</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B13" s="37">
+        <v>0</v>
       </c>
       <c r="C13" s="17">
         <v>-10</v>
@@ -2405,10 +2474,10 @@
       <c r="D13" s="18">
         <v>163</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="41">
         <v>200</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="42">
         <v>100</v>
       </c>
       <c r="G13" s="15">
@@ -2418,9 +2487,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="12">
-        <v>2</v>
+    <row r="14" spans="2:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="37">
+        <v>1</v>
       </c>
       <c r="C14" s="15">
         <v>90</v>
@@ -2441,14 +2510,14 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="12">
-        <v>3</v>
-      </c>
-      <c r="C15" s="26">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B15" s="37">
+        <v>2</v>
+      </c>
+      <c r="C15" s="39">
         <v>190</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="40">
         <v>283</v>
       </c>
       <c r="E15" s="22">
@@ -2457,22 +2526,29 @@
       <c r="F15" s="23">
         <v>220</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="41">
         <v>610</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="42">
         <v>157</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="12">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="14"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B16" s="37" t="s">
+        <v>28</v>
       </c>
       <c r="C16" s="22">
         <v>290</v>
@@ -2493,15 +2569,28 @@
         <v>217</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L16" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="12">
-        <v>5</v>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="33"/>
+      <c r="T16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="33"/>
+      <c r="V16" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="W16" s="33"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B17" s="37" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="26">
         <v>390</v>
@@ -2522,14 +2611,33 @@
         <v>277</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B18" s="12">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B18" s="37">
         <v>6</v>
       </c>
       <c r="C18" s="22">
@@ -2551,14 +2659,35 @@
         <v>337</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B19" s="12">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>1</v>
+      </c>
+      <c r="R18" s="17">
+        <v>-10</v>
+      </c>
+      <c r="S18" s="18">
+        <v>163</v>
+      </c>
+      <c r="T18" s="22">
+        <v>200</v>
+      </c>
+      <c r="U18" s="23">
+        <v>100</v>
+      </c>
+      <c r="V18" s="30">
+        <v>410</v>
+      </c>
+      <c r="W18" s="31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B19" s="37">
         <v>7</v>
       </c>
       <c r="C19" s="17">
@@ -2580,14 +2709,35 @@
         <v>397</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="12">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>2</v>
+      </c>
+      <c r="R19" s="30">
+        <v>90</v>
+      </c>
+      <c r="S19" s="31">
+        <v>223</v>
+      </c>
+      <c r="T19" s="22">
+        <v>300</v>
+      </c>
+      <c r="U19" s="23">
+        <v>160</v>
+      </c>
+      <c r="V19" s="30">
+        <v>510</v>
+      </c>
+      <c r="W19" s="31">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="37">
         <v>8</v>
       </c>
       <c r="C20" s="19">
@@ -2609,33 +2759,118 @@
         <v>457</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L20" s="29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B21" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>3</v>
+      </c>
+      <c r="R20" s="26">
+        <v>190</v>
+      </c>
+      <c r="S20" s="27">
+        <v>283</v>
+      </c>
+      <c r="T20" s="22">
+        <v>400</v>
+      </c>
+      <c r="U20" s="23">
+        <v>220</v>
+      </c>
+      <c r="V20" s="22">
+        <v>610</v>
+      </c>
+      <c r="W20" s="23">
+        <v>157</v>
+      </c>
+      <c r="Z20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA20" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B21" s="36"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="Q21" s="12">
+        <v>4</v>
+      </c>
+      <c r="R21" s="22">
+        <v>290</v>
+      </c>
+      <c r="S21" s="23">
+        <v>343</v>
+      </c>
+      <c r="T21" s="22">
+        <v>500</v>
+      </c>
+      <c r="U21" s="23">
+        <v>280</v>
+      </c>
+      <c r="V21" s="22">
+        <v>710</v>
+      </c>
+      <c r="W21" s="23">
+        <v>217</v>
+      </c>
+      <c r="Z21" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA21" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B22" s="36"/>
+      <c r="C22" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="34"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B23" s="21">
-        <v>1</v>
+      <c r="G22" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="Q22" s="12">
+        <v>5</v>
+      </c>
+      <c r="R22" s="26">
+        <v>390</v>
+      </c>
+      <c r="S22" s="27">
+        <v>403</v>
+      </c>
+      <c r="T22" s="22">
+        <v>600</v>
+      </c>
+      <c r="U22" s="23">
+        <v>340</v>
+      </c>
+      <c r="V22" s="22">
+        <v>810</v>
+      </c>
+      <c r="W22" s="23">
+        <v>277</v>
+      </c>
+      <c r="Z22" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA22" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B23" s="38" t="s">
+        <v>25</v>
       </c>
       <c r="C23" s="21">
         <v>80</v>
@@ -2651,10 +2886,37 @@
       <c r="H23" s="21">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B24" s="21">
-        <v>2</v>
+      <c r="Q23" s="12">
+        <v>6</v>
+      </c>
+      <c r="R23" s="22">
+        <v>490</v>
+      </c>
+      <c r="S23" s="23">
+        <v>463</v>
+      </c>
+      <c r="T23" s="22">
+        <v>700</v>
+      </c>
+      <c r="U23" s="23">
+        <v>400</v>
+      </c>
+      <c r="V23" s="22">
+        <v>910</v>
+      </c>
+      <c r="W23" s="23">
+        <v>337</v>
+      </c>
+      <c r="Z23" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA23" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B24" s="38" t="s">
+        <v>26</v>
       </c>
       <c r="C24" s="21">
         <v>180</v>
@@ -2670,29 +2932,83 @@
       <c r="H24" s="21">
         <v>124</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B25" s="21">
-        <v>3</v>
-      </c>
-      <c r="C25" s="28">
+      <c r="Q24" s="12">
+        <v>7</v>
+      </c>
+      <c r="R24" s="17">
+        <v>590</v>
+      </c>
+      <c r="S24" s="18">
+        <v>523</v>
+      </c>
+      <c r="T24" s="22">
+        <v>800</v>
+      </c>
+      <c r="U24" s="23">
+        <v>460</v>
+      </c>
+      <c r="V24" s="30">
+        <v>1010</v>
+      </c>
+      <c r="W24" s="31">
+        <v>397</v>
+      </c>
+      <c r="Z24" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA24" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="21">
         <v>280</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="21">
         <v>256</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="28">
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="21">
         <v>520</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="21">
         <v>184</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B26" s="21">
-        <v>4</v>
+      <c r="Q25" s="12">
+        <v>8</v>
+      </c>
+      <c r="R25" s="19">
+        <v>690</v>
+      </c>
+      <c r="S25" s="20">
+        <v>583</v>
+      </c>
+      <c r="T25" s="24">
+        <v>900</v>
+      </c>
+      <c r="U25" s="25">
+        <v>520</v>
+      </c>
+      <c r="V25" s="19">
+        <v>1110</v>
+      </c>
+      <c r="W25" s="20">
+        <v>457</v>
+      </c>
+      <c r="Z25" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA25" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B26" s="38" t="s">
+        <v>30</v>
       </c>
       <c r="C26" s="28">
         <v>380</v>
@@ -2708,10 +3024,17 @@
       <c r="H26" s="28">
         <v>244</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B27" s="21">
-        <v>5</v>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B27" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="C27" s="28">
         <v>480</v>
@@ -2727,9 +3050,20 @@
       <c r="H27" s="28">
         <v>304</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B28" s="21">
+      <c r="Q27" s="6"/>
+      <c r="R27" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="S27" s="34"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="W27" s="34"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B28" s="38">
         <v>6</v>
       </c>
       <c r="C28" s="28">
@@ -2746,9 +3080,26 @@
       <c r="H28" s="28">
         <v>364</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B29" s="21">
+      <c r="Q28" s="21">
+        <v>1</v>
+      </c>
+      <c r="R28" s="21">
+        <v>80</v>
+      </c>
+      <c r="S28" s="21">
+        <v>136</v>
+      </c>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="21">
+        <v>320</v>
+      </c>
+      <c r="W28" s="21">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B29" s="38">
         <v>7</v>
       </c>
       <c r="C29" s="21">
@@ -2765,9 +3116,26 @@
       <c r="H29" s="21">
         <v>424</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B30" s="21">
+      <c r="Q29" s="21">
+        <v>2</v>
+      </c>
+      <c r="R29" s="21">
+        <v>180</v>
+      </c>
+      <c r="S29" s="21">
+        <v>196</v>
+      </c>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="21">
+        <v>420</v>
+      </c>
+      <c r="W29" s="21">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B30" s="38">
         <v>8</v>
       </c>
       <c r="C30" s="21">
@@ -2784,15 +3152,137 @@
       <c r="H30" s="21">
         <v>484</v>
       </c>
+      <c r="Q30" s="21">
+        <v>3</v>
+      </c>
+      <c r="R30" s="28">
+        <v>280</v>
+      </c>
+      <c r="S30" s="28">
+        <v>256</v>
+      </c>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="28">
+        <v>520</v>
+      </c>
+      <c r="W30" s="28">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Q31" s="21">
+        <v>4</v>
+      </c>
+      <c r="R31" s="28">
+        <v>380</v>
+      </c>
+      <c r="S31" s="28">
+        <v>316</v>
+      </c>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="28">
+        <v>620</v>
+      </c>
+      <c r="W31" s="28">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Q32" s="21">
+        <v>5</v>
+      </c>
+      <c r="R32" s="28">
+        <v>480</v>
+      </c>
+      <c r="S32" s="28">
+        <v>376</v>
+      </c>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="28">
+        <v>720</v>
+      </c>
+      <c r="W32" s="28">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="17:23" x14ac:dyDescent="0.15">
+      <c r="Q33" s="21">
+        <v>6</v>
+      </c>
+      <c r="R33" s="28">
+        <v>580</v>
+      </c>
+      <c r="S33" s="28">
+        <v>436</v>
+      </c>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="28">
+        <v>820</v>
+      </c>
+      <c r="W33" s="28">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="17:23" x14ac:dyDescent="0.15">
+      <c r="Q34" s="21">
+        <v>7</v>
+      </c>
+      <c r="R34" s="21">
+        <v>680</v>
+      </c>
+      <c r="S34" s="21">
+        <v>496</v>
+      </c>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="21">
+        <v>920</v>
+      </c>
+      <c r="W34" s="21">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="35" spans="17:23" x14ac:dyDescent="0.15">
+      <c r="Q35" s="21">
+        <v>8</v>
+      </c>
+      <c r="R35" s="21">
+        <v>780</v>
+      </c>
+      <c r="S35" s="21">
+        <v>556</v>
+      </c>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="21">
+        <v>1020</v>
+      </c>
+      <c r="W35" s="21">
+        <v>484</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="V27:W27"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B23:B25" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>